--- a/loaded_influencer_data/_gabrielle_james_/_gabrielle_james__video.xlsx
+++ b/loaded_influencer_data/_gabrielle_james_/_gabrielle_james__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,272 +506,273 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7487209030499290390</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1612</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>423</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>화물 🍕✌🏼👯‍♀️@Calissa🍒 #FoodTok #manchester #salfordquays #manchesterfood #dateideas</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4.897590361445784</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.855421686746988</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04216867469879518</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.274096385542169</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7396327562466643232</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>57400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5023</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B3" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5024</v>
+      </c>
+      <c r="D3" t="n">
         <v>33</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>538</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Such a fanboy 🦇
-#batman #batmanunmasked #fypviralシ #boyfriendsoftiktok #fypシ゚viral🖤tiktok</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8.80836236933798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.750871080139373</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05749128919860627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9372822299651569</v>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>539</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>그런 팬보이 🦇 #batman #batmanunmasked #fypviralシ #boyfriendsoftiktok #fypシ゚viral🖤tiktok</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8.779513888888889</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.722222222222223</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05729166666666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.935763888888889</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2024-7-27</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7488786822986796290</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>442</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>데이트 나이트 💋#datenightoutfit #datenightoutfitideas #ootd #getdressedwithme #fashion #grwm #outfitinspo #fyp</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>17.19457013574661</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.57466063348416</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.619909502262444</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4524886877828055</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/photo/7488017794123058454</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>459</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>내가 가장 좋아하는 힐 🖤💋@XYLONDON #gifted #ootd #fashion #grwm #outfitinspo #fyp</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>19.38997821350763</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.54684095860566</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.84313725490196</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2178649237472767</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7485833586873060630</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>467</v>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Wholesome walkies 🐾☁️🌿🐄 #wholesome #dogsoftiktok #dayinmylife #fyp #weekends #dogtok</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17.1306209850107</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.13276231263383</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.997858672376874</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2141327623126338</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="B6" t="n">
+        <v>557</v>
+      </c>
+      <c r="C6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>건전한 무전기 🐾☁️🌿🐄#wholesome #dogsoftiktok #dayinmylife #fyp #weekends #dogtok</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>16.69658886894075</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.46499102333932</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.231597845601436</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3590664272890485</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7484959459358346518</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>545</v>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>@XYLONDON #gifted #kittenheels #ootd #unboxwithme #microinfluencertiktok #ugccreator #fyp</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>15.41284403669725</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.55963302752294</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.853211009174312</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5504587155963303</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/video/7484317937092857110</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1052</v>
-      </c>
-      <c r="C5" t="n">
-        <v>176</v>
-      </c>
-      <c r="D5" t="n">
-        <v>78</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>I cant wait to show you guys! 🥹✨💌 #ugccreator #prhaul #microinfluencertiktok #fyp</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>24.14448669201521</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16.73003802281369</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.41444866920152</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5703422053231939</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/photo/7483447827306138902</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>691</v>
-      </c>
-      <c r="C6" t="n">
-        <v>97</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A cute little support community 🥹 to join, follow me and DM me saying “Collab Circle” 🤎 #ugccreator</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>18.95803183791606</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.03762662807525</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.92040520984081</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.723589001447178</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/video/7483183406528908566</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>746</v>
+        <v>634</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -781,347 +782,347 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Code GABRIELLE for 15% off! @boohoo shop the fit in my bio 🖤 #boohoo #boohoohaul #outfitinspo #fashiontiktok #fyp</t>
+          <t>@XYLONDON #gifted #kittenheels #ootd #unboxwithme #microinfluencertiktok #ugccreator #fyp</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13.94101876675603</v>
+        <v>14.35331230283912</v>
       </c>
       <c r="I7" t="n">
-        <v>10.18766756032172</v>
+        <v>10.88328075709779</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.753351206434316</v>
+        <v>3.470031545741325</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5361930294906166</v>
+        <v>0.6309148264984227</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7484317937092857110</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C8" t="n">
+        <v>69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>@XYLONDON #gifted #kittenheels #ootd #unboxwithme #microinfluencertiktok #ugccreator #fyp</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8.053097345132745</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.106194690265487</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.946902654867257</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3539823008849557</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/photo/7483447827306138902</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>184</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>여러분들에게 빨리 보여주고 싶어요! 🥹✨💌#ugccreator #prhaul #microinfluencertiktok #fyp</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>35.74351978171897</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.10231923601637</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.64120054570259</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8185538881309686</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7483183406528908566</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>785</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>귀여운 작은 지원 커뮤니티가 가입하고, 저를 팔로우하고, "Collab Circle"이라고 DM을 보낼 🥹 있습니다. 🤎#ugccreator</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>17.07006369426751</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.73885350318471</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.331210191082802</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6369426751592357</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7482354908151287062</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B11" t="n">
         <v>593</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>87</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>31</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Get unready with me 🧖🏼‍♀️ #getunreadywithme #grwmroutine #skincare #theordinary #theinkeylist #larocheposay</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>19.89881956155143</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>14.67116357504216</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.227655986509275</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>0.1686340640809443</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7481643354476907798</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>644</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>99</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>32</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>It brings the whole look together! @Peaches &amp; Cream @elfcosmetics 💋💋💋 #lipcombo</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>20.3416149068323</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>15.37267080745342</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.968944099378882</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>1.08695652173913</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/photo/7480228899801074966</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>16500</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>1321</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>355</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>47</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>I hate being stuck in the 300-500 views 😭 #ugc #microinfluencer #teamwork #girlssupportgirls #fyp</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>10.15757575757576</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>8.006060606060606</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.151515151515151</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.2848484848484849</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7479758682348162326</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>816</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>153</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>35</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>DATE NIGHT 🖤✨ #beforeandafter #transformation #makeuptransformation #grwm #getdressedwithme</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>23.03921568627451</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.28921568627451</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.6127450980392157</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/photo/7479044190781934870</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1135</v>
-      </c>
-      <c r="C12" t="n">
-        <v>156</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>I can’t wait to use these products! @Color Wow UK @Beauty Works @La Roche-Posay @The Ordinary</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>18.23788546255507</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13.74449339207048</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.493392070484582</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.4405286343612335</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/video/7478326336969379094</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>701</v>
-      </c>
-      <c r="C13" t="n">
-        <v>114</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Get dressed with me! How cute is my @prettylittlething coat #grwm #getdressedwithme #ootd #fyp #ugc</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>19.11554921540656</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16.26248216833095</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.853067047075606</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1426533523537803</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_gabrielle_james_/video/7477252272653716758</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>647</v>
-      </c>
-      <c r="C14" t="n">
-        <v>85</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1131,1501 +1132,1651 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>DATE NIGHT 🖤✨ #beforeandafter #transformation #makeuptransformation #grwm #getdressedwithme</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>23.03921568627451</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.28921568627451</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6127450980392157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/photo/7479044190781934870</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>156</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>I can’t wait to use these products! @Color Wow UK @Beauty Works @La Roche-Posay @The Ordinary</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>18.23788546255507</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.74449339207048</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.493392070484582</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4405286343612335</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7478326336969379094</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>701</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Get dressed with me! How cute is my @prettylittlething coat #grwm #getdressedwithme #ootd #fyp #ugc</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>19.11554921540656</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.26248216833095</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.853067047075606</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1426533523537803</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_gabrielle_james_/video/7477252272653716758</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>85</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>The start of my Skincare Journey 🫶🏼@Skin Care Specialist | EMI&amp;CO</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>15.45595054095827</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>13.13755795981453</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.31839258114374</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.7727975270479135</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/photo/7475769973789461783</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>966</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>170</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>38</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>I want 2025 to be my year 🤞🏼#contentcreator #ugc #dreamjob #ugccontentcreator #teamwork</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>21.53209109730849</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>17.59834368530021</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.933747412008282</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.4140786749482402</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7475387916282268950</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>802</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>177</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>29</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>@EGO FASHION #grwm #ootdinspo #ootd #fyp #outfitinspo #fashion</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>25.6857855361596</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>22.06982543640898</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.615960099750624</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.3740648379052369</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7474251122505420054</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>676</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>116</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>23</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>GRWM for my Boyfriend’s Birthday PART 1🎈✨💌
 #grwm #grwmmakeup #makeuptransformation #fullglam</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>20.56213017751479</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>17.15976331360947</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.402366863905325</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>0.4437869822485207</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7473438230512209174</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>604</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>94</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>29</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Another GRWM ❤️‍🔥
 #grwm #grwmroutine #grwmmakeup #glowup #girltherapy #girlssupportgirls #ugc</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>20.36423841059603</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>15.56291390728477</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.801324503311259</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>0.8278145695364238</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7472459563527130390</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>4381</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>123</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>11</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>JERK JUNCTION 💚
 #jerkjunction #traffordcentre #foodtok #foodreview #eatwithme #fyp #ugc</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>3.058662405843414</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>2.80757817849806</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.251084227345355</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.251084227345355</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7472118417672178966</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>524</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>81</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>20</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>GRWM ☺️ @Peaches &amp; Cream @elfcosmetics @HNB Cosmetics @Revolution Pro @PINKHONEY</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>19.27480916030534</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>15.45801526717557</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.816793893129771</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>0.3816793893129771</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7471967947255319830</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>573</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>92</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>26</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>My hairdresser understood the assignment 💇🏽‍♀️
 #hairtransformation #newhairwhodis #hairgoals</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>20.5933682373473</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>16.05584642233857</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.537521815008725</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.5235602094240838</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7470640136678853910</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>1093</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>227</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>65</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>10</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>My hairdresser understood the assignment 💇🏽‍♀️
 #hairtransformation #newhairwhodis #hairgoals</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>26.71546203110704</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>20.76852698993596</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.946935041171089</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.9149130832570906</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7470509491616746774</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>584</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>99</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>32</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>New favourite lipgloss @elfcosmetics
 #girltherapy #girlssupportgirls #grwm #grwmmakeup #worklife</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>22.43150684931507</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>16.95205479452055</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.47945205479452</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.684931506849315</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7470310151031934241</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>432</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>79</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>🐾✨💌🥹
 #dogsoftiktok #dogtok #doglove #dogmom #doglovers #animallover #animalsoftiktok #therapy</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>21.99074074074074</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>18.28703703703704</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.703703703703703</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.2314814814814815</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7470145481008614688</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>436</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>71</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Me time. 🫧☁️🧘🏼‍♀️🧖🏼‍♀️🤍
 #selfcare #skincare #skincareroutine #therapy #girlssupportgirls #girltherapy #ugc</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>19.4954128440367</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>16.28440366972477</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.211009174311927</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.6880733944954129</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7469138230462401824</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>532</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>88</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>32</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>So many cute Valentines Day and Summer themed things! 🫶🏼💌🍋🍸
 #valentinesday #valentine #galentinesday</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>22.55639097744361</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>16.54135338345865</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>6.015037593984962</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.7518796992481203</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7468307346175855904</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>514</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>100</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>24</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>🧖🏼‍♀️☁️🫧✨
 #skincare #skincareroutine #isoclean @ISOCLEAN #theordinary @The Ordinary</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>24.12451361867704</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>19.45525291828794</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.669260700389105</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.3891050583657588</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7467658433467125024</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>866</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>160</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>33</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>11</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>🙃🙃🙃
 #grwm #ootd #grwmmakeup #officelife #travel #ugc #ugccontentcreator #ugccommunity</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>22.28637413394919</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>18.4757505773672</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.810623556581986</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>1.270207852193995</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7467324540041891105</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>555</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>90</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>22</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Arghh! My first voice over! 🙊
 #grwm #haircareroutine #naturespell @Nature Spell Inc #girltherapy</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>20.18018018018018</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>16.21621621621622</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.963963963963964</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.1801801801801802</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7466543363882339616</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>737</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>141</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>39</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>6</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>GIRLHOOD 🍒✨❤️‍🔥💋🫶🏼💄🧖🏼‍♀️
 #girlhood #girlhoodaesthetic #grwm #glam #ootd #girls</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>24.42333785617368</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>19.13161465400271</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.291723202170964</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.8141112618724559</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7466375129770003745</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>671</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>99</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>FOLLOW @Calissa🍒
 A TRANSFORMATION!
 #grwm #grwmmakeup #makeup #glam #goingoutmakeup</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>18.47988077496274</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>14.75409836065574</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.725782414307004</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.4470938897168406</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7465448953518050592</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>803</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>133</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>28</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>8</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>FOLLOW @Calissa🍒
 A TRANSFORMATION!
 #grwm #grwmmakeup #makeup #glam #goingoutmakeup</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>20.04981320049813</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>16.56288916562889</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.486924034869241</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.9962640099626401</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7465080537472912673</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>740</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>126</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>21</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Whats your favourite colour? 🩷
 #PinkVibes #FitFashion #outfitoftheday #pinkoutfit #gymlook #styleinspo</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>19.86486486486486</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>17.02702702702703</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.837837837837838</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7464362624818416929</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>592</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>92</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Sunday night prep 🤎 My skin has been awful recently! Has anyone elses?
 @The Ordinary #SelfCare #sunday</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>18.07432432432433</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>15.54054054054054</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.533783783783784</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.3378378378378378</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7464204455664176417</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>636</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>97</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>SLAY ✨⭐️👑
 #baggoals #slayeveryday #styleinspo #OOTD #fashionaddict #fashiontiktok #accessoriesmatter</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>17.76729559748427</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>15.25157232704403</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.515723270440252</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>0.3144654088050315</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7463802130298588449</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>472</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>74</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>14</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>I love the world 🌺🦋🌞🌎🌊🌴🐠
 #travel #traveltiktok #traveltok #lifestyle #vacationmode #ugccreator</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>18.64406779661017</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>15.67796610169492</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.966101694915254</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.423728813559322</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7463577798133828897</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>447</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>54</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>14</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Chill time is my fave time 🫶🏼
 #lifestyle #selfcare #ugc #ugccreator #ugccommunity #teamwork</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>15.21252796420582</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>12.08053691275168</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.131991051454139</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7463205866875981088</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>659</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>93</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>34</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>7</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>We got this!! ❤️‍🔥
 #teamwork #ugccreator #ugccommunity #ugccontentcreator #ugc #support #2025</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>19.27162367223065</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>14.11229135053111</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>5.159332321699544</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>1.062215477996965</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7463064881202203937</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>497</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>48</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>9</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Its Gym Time! I didnt include all of my workouts because I forgot to film it all oops!❤️‍🔥
 #lifestyle #fashiontiktok</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>11.46881287726358</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>9.6579476861167</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.810865191146881</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.4024144869215292</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7462377210960203041</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>568</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>65</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>29</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Hi!! 🫶🏼
 #lifestyle #fashiontiktok #beautytok #teamwork #ugccreator #ugccommunity #ugccontentcreator</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>16.54929577464789</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>11.44366197183099</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>5.105633802816902</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7461911197311307040</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>2001</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>50</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Self Care kind of night 🧖🏼‍♀️☁️✨
 #ugccreator #ugccontentcreator #ugc #ugccommunity #selfcare</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>2.848575712143928</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>2.498750624687656</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.3498250874562719</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.04997501249375312</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/photo/7395707977321221408</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>1047</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>62</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Quite enjoyed this… 💅🏼
 #holidayfits #ratemyoutfit #fyp #viralvideo #viral #foryoupage</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>6.399235912129895</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>5.921680993314231</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.4775549188156638</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.1910219675262655</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_gabrielle_james_/video/7381225006061128993</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>815</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>130</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Is anyone elses boyfriend like this??? 😭 #failvideo #funnyvideos #fyp #fypviralシ #relationship</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>16.07361963190184</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>15.95092024539877</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1226993865030675</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.3680981595092024</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-6-17</t>
         </is>
